--- a/biology/Botanique/Veronica_sect._Hebe/Veronica_sect._Hebe.xlsx
+++ b/biology/Botanique/Veronica_sect._Hebe/Veronica_sect._Hebe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Veronica sect. Hebe est une section de plantes vivaces (les hébés, ou véroniques arbustives) du genre Veronica et de la famille des Scrophulariaceae, ou des Plantaginaceae selon la classification phylogénétique. Il comprend environ cent espèces. Ce sont des arbustes appréciés pour leur feuillage ornemental.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces plantes sont originaires d'Australie et de Nouvelle-Zélande. Leur genre a été décrit pour la première fois par les Français Philibert Commerson et Antoine-Laurent de Jussieu à la fin du XVIIIe siècle. C'est au XIXe siècle que les premières graines furent importées en Grande-Bretagne. Issac Anderson-Henry popularisa ce genre et encouragea sa culture. Il y avait à ce moment-là une quarantaine d'espèces qui furent progressivement hybridées. Créée en 1845, la première hybride fut appelée Hebe 'Rosea'.
 </t>
@@ -569,7 +585,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hebe apprécient les situations ensoleillées et un sol un peu humide. Leur taille s'effectue après leur floraison.
 </t>
@@ -600,9 +618,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (3 mars 2019)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (3 mars 2019) :
 Veronica albicans Petri
 Veronica armstrongii J.B.Armstr.
 Veronica baylyi Garn.-Jones
@@ -627,11 +647,11 @@
 Veronica ×andersonii Lindl. &amp; Paxton
 Veronica ×balfouriana Hook. f.
 Veronica ×bidwillii Hook.
-Selon ITIS      (3 mars 2019)[2] :
+Selon ITIS      (3 mars 2019) :
 Hebe ×franciscana (Eastw.) Souster
 Hebe speciosa (R. Cunn. ex A. Cunn.) Andersen
 Hebe venustula (Colenso) Cockayne
-Selon NCBI  (3 mars 2019)[3] :
+Selon NCBI  (3 mars 2019) :
 Veronica adamsii Cheeseman
 Veronica albicans Hebe albicans (Petrie) Cockayne
 Veronica albiflora Parahebe albiflora (Pennell) van Royen &amp; Ehrend.
@@ -721,7 +741,7 @@
 Veronica vandewateri Parahebe vandewateri (Wernham) van Royen
 Veronica vendettadeae Albach
 Veronica vernicosa Hebe vernicosa (Hook.f.) Cockayne &amp; Allan
-Selon The Plant List            (3 mars 2019)[4] :
+Selon The Plant List            (3 mars 2019) :
 Hebe andersonii (Lindl. &amp; J. Paxton) Cockayne
 Hebe benthamii (Hook.f.) Cockayne &amp; Allan
 Hebe corriganii Carse
@@ -735,7 +755,7 @@
 Hebe petriei (Buchanan) Cockayne &amp; Allan
 Hebe ramosissima G.Simpson &amp; J.S.Thomson
 Hebe stenophylla (Steud.) Bayly &amp; Garn.-Jones
-Selon Tropicos                                           (3 mars 2019)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 Hebe acutiflora
 Hebe adamsii
 Hebe albicans
